--- a/database/industries/khodro/khodro/cost/quarterly.xlsx
+++ b/database/industries/khodro/khodro/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E2293-D8E1-4773-9866-8EFA7CDB1855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2871E-9256-47D2-B93E-936CD0149E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -704,12 +704,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,7 +724,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -773,7 +773,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -822,7 +822,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -859,7 +859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -874,7 +874,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -911,7 +911,7 @@
         <v>313067969</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -948,7 +948,7 @@
         <v>6172888</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -985,7 +985,7 @@
         <v>30294334</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>349535191</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>-2167121</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>347368070</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2960540</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>350328610</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>38404886</v>
       </c>
       <c r="H19" s="11">
         <v>40232126</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>85523586</v>
       </c>
       <c r="K19" s="11">
-        <v>9756638</v>
+        <v>95280224</v>
       </c>
       <c r="L19" s="11">
         <v>55951031</v>
@@ -1244,7 +1244,7 @@
         <v>25526521</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>5251234</v>
       </c>
       <c r="G20" s="9">
-        <v>-1827240</v>
+        <v>-40232126</v>
       </c>
       <c r="H20" s="9">
         <v>-66079170</v>
@@ -1266,7 +1266,7 @@
         <v>-19444416</v>
       </c>
       <c r="J20" s="9">
-        <v>-9756638</v>
+        <v>-95280224</v>
       </c>
       <c r="K20" s="9">
         <v>-55951031</v>
@@ -1281,7 +1281,7 @@
         <v>-32341241</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>343513890</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>180099482</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>523613372</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1407,7 +1407,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1422,7 +1422,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1489,7 +1489,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>1</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1634,7 +1634,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1649,7 +1649,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1701,7 +1701,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>1</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1831,7 +1831,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1846,7 +1846,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1861,7 +1861,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1913,7 +1913,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10">
         <v>1</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2043,7 +2043,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2058,7 +2058,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2073,7 +2073,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>35</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2125,7 +2125,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10">
         <v>1</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2255,7 +2255,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2270,7 +2270,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2285,7 +2285,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2337,7 +2337,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10">
         <v>1</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2467,7 +2467,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2482,7 +2482,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2497,7 +2497,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>38</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2549,7 +2549,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>29</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10">
         <v>1</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>786265794</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>786265794</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2694,7 +2694,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2709,7 +2709,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2761,7 +2761,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10">
         <v>1</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>781946589</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>781946589</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2891,7 +2891,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2906,7 +2906,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2921,7 +2921,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>40</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2973,7 +2973,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10">
         <v>1</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>60862326</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>60862326</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3118,7 +3118,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3133,7 +3133,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>41</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3185,7 +3185,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10">
         <v>1</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3278,7 +3278,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3293,7 +3293,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3308,7 +3308,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>44</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3360,7 +3360,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10">
         <v>1</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>786265794000000</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3453,7 +3453,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3468,7 +3468,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3483,7 +3483,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>45</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10">
         <v>1</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>781946589000000</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3628,7 +3628,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3643,7 +3643,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3658,7 +3658,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>46</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3710,7 +3710,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>29</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>1</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>60862326000000</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3803,7 +3803,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3818,7 +3818,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3833,7 +3833,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>47</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3885,7 +3885,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>48</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>49</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>50</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>51</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>52</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>1971133</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>53</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>108642</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>54</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>1390968</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>55</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>26048015</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>56</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>57</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>775576</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>17</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>30294334</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4307,7 +4307,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4322,7 +4322,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4337,7 +4337,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>58</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4369,7 +4369,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>59</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>61</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>63</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>64</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>65</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>67</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>68</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>69</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>70</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>71</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>72</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>73</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>74</v>
       </c>
